--- a/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
+++ b/InputData/bldgs/DSCF/Distributed Solar Cap Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/template_state/bldgs/DSCF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/bldgs/dscf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF25CD-6333-2643-ABF5-4BB60B1C9249}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25CB6C6-9E73-124E-B76B-A904B4101368}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -581,20 +581,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -609,6 +600,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2201,6 +2202,7 @@
       <sheetName val="LCOE Range"/>
       <sheetName val="PV OCC"/>
       <sheetName val="Program Goals"/>
+      <sheetName val="2020-ATB-Data-Mac"/>
     </sheetNames>
     <definedNames>
       <definedName name="CapacityFactorDefinition"/>
@@ -2233,6 +2235,7 @@
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
+      <sheetData sheetId="27" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2436,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
@@ -2448,15 +2451,18 @@
     <col min="2" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="31">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,51 +2470,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>91</v>
       </c>
@@ -3522,1568 +3528,1568 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18" style="29" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="29"/>
+    <col min="1" max="1" width="25.33203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="18" style="26" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="23"/>
-      <c r="C1" s="24">
+    <row r="1" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21">
         <v>2018</v>
       </c>
-      <c r="D1" s="24">
+      <c r="D1" s="21">
         <v>2019</v>
       </c>
-      <c r="E1" s="24">
+      <c r="E1" s="21">
         <v>2020</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F1" s="21">
         <v>2021</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="21">
         <v>2022</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H1" s="21">
         <v>2023</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I1" s="21">
         <v>2024</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J1" s="21">
         <v>2025</v>
       </c>
-      <c r="K1" s="24">
+      <c r="K1" s="21">
         <v>2026</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L1" s="21">
         <v>2027</v>
       </c>
-      <c r="M1" s="24">
+      <c r="M1" s="21">
         <v>2028</v>
       </c>
-      <c r="N1" s="24">
+      <c r="N1" s="21">
         <v>2029</v>
       </c>
-      <c r="O1" s="24">
+      <c r="O1" s="21">
         <v>2030</v>
       </c>
-      <c r="P1" s="24">
+      <c r="P1" s="21">
         <v>2031</v>
       </c>
-      <c r="Q1" s="24">
+      <c r="Q1" s="21">
         <v>2032</v>
       </c>
-      <c r="R1" s="24">
+      <c r="R1" s="21">
         <v>2033</v>
       </c>
-      <c r="S1" s="24">
+      <c r="S1" s="21">
         <v>2034</v>
       </c>
-      <c r="T1" s="24">
+      <c r="T1" s="21">
         <v>2035</v>
       </c>
-      <c r="U1" s="24">
+      <c r="U1" s="21">
         <v>2036</v>
       </c>
-      <c r="V1" s="24">
+      <c r="V1" s="21">
         <v>2037</v>
       </c>
-      <c r="W1" s="24">
+      <c r="W1" s="21">
         <v>2038</v>
       </c>
-      <c r="X1" s="24">
+      <c r="X1" s="21">
         <v>2039</v>
       </c>
-      <c r="Y1" s="24">
+      <c r="Y1" s="21">
         <v>2040</v>
       </c>
-      <c r="Z1" s="24">
+      <c r="Z1" s="21">
         <v>2041</v>
       </c>
-      <c r="AA1" s="24">
+      <c r="AA1" s="21">
         <v>2042</v>
       </c>
-      <c r="AB1" s="24">
+      <c r="AB1" s="21">
         <v>2043</v>
       </c>
-      <c r="AC1" s="24">
+      <c r="AC1" s="21">
         <v>2044</v>
       </c>
-      <c r="AD1" s="24">
+      <c r="AD1" s="21">
         <v>2045</v>
       </c>
-      <c r="AE1" s="24">
+      <c r="AE1" s="21">
         <v>2046</v>
       </c>
-      <c r="AF1" s="24">
+      <c r="AF1" s="21">
         <v>2047</v>
       </c>
-      <c r="AG1" s="24">
+      <c r="AG1" s="21">
         <v>2048</v>
       </c>
-      <c r="AH1" s="24">
+      <c r="AH1" s="21">
         <v>2049</v>
       </c>
-      <c r="AI1" s="24">
+      <c r="AI1" s="21">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="22" t="str">
+      <c r="B2" s="19" t="str">
         <f>About!B1</f>
         <v>California</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="19" t="str">
         <f>LOOKUP(B2,A8:C58,C8:C58)</f>
         <v>Kansas City</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <f>SUMIFS(B75:B79,$A75:$A79,$B3)</f>
         <v>0.16519144698681371</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <f>SUMIFS(C75:C79,$A75:$A79,$B3)</f>
         <v>0.16542572813951825</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <f>SUMIFS(D75:D79,$A75:$A79,$B3)</f>
         <v>0.1656600092922228</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="19">
         <f>SUMIFS(E75:E79,$A75:$A79,$B3)</f>
         <v>0.16589429044492734</v>
       </c>
-      <c r="G3" s="22">
-        <f t="shared" ref="C3:AI3" si="0">SUMIFS(F75:F79,$A75:$A79,$B3)</f>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:AI3" si="0">SUMIFS(F75:F79,$A75:$A79,$B3)</f>
         <v>0.16612857159763189</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <f t="shared" si="0"/>
         <v>0.16636285275033644</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="19">
         <f t="shared" si="0"/>
         <v>0.16659713390304098</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="19">
         <f t="shared" si="0"/>
         <v>0.16683141505574553</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="19">
         <f t="shared" si="0"/>
         <v>0.16706569620845008</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="19">
         <f t="shared" si="0"/>
         <v>0.16729997736115462</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="19">
         <f t="shared" si="0"/>
         <v>0.16753425851385917</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="19">
         <f t="shared" si="0"/>
         <v>0.16776853966656372</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="19">
         <f t="shared" si="0"/>
         <v>0.16800282081926834</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="19">
         <f t="shared" si="0"/>
         <v>0.1682197462125801</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="19">
         <f t="shared" si="0"/>
         <v>0.16843667160589185</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="19">
         <f t="shared" si="0"/>
         <v>0.1686535969992036</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="19">
         <f t="shared" si="0"/>
         <v>0.16887052239251535</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="19">
         <f t="shared" si="0"/>
         <v>0.1690874477858271</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="19">
         <f t="shared" si="0"/>
         <v>0.16930437317913885</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="19">
         <f t="shared" si="0"/>
         <v>0.1695212985724506</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="19">
         <f t="shared" si="0"/>
         <v>0.16973822396576235</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3" s="19">
         <f t="shared" si="0"/>
         <v>0.1699551493590741</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="19">
         <f t="shared" si="0"/>
         <v>0.17017207475238585</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="19">
         <f t="shared" si="0"/>
         <v>0.17038900014569761</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="19">
         <f t="shared" si="0"/>
         <v>0.17060592553900936</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="19">
         <f t="shared" si="0"/>
         <v>0.17082285093232111</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="19">
         <f t="shared" si="0"/>
         <v>0.17103977632563286</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="19">
         <f t="shared" si="0"/>
         <v>0.17125670171894461</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="19">
         <f t="shared" si="0"/>
         <v>0.17147362711225636</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="19">
         <f t="shared" si="0"/>
         <v>0.17169055250556811</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="19">
         <f t="shared" si="0"/>
         <v>0.17190747789887986</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="19">
         <f t="shared" si="0"/>
         <v>0.17212440329219161</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="19">
         <f t="shared" si="0"/>
         <v>0.17234132868550339</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+    <row r="4" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="19">
         <v>32.779400000000003</v>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="19" t="str">
         <f t="array" ref="C8">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B8)),ABS(cities-B8),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>64.0685</v>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="19" t="str">
         <f t="array" ref="C9">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B9)),ABS(cities-B9),0))</f>
         <v>Seattle</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="19">
         <v>34.2744</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="19" t="str">
         <f t="array" ref="C10">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B10)),ABS(cities-B10),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="23">
         <v>34.893799999999999</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="19" t="str">
         <f t="array" ref="C11">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B11)),ABS(cities-B11),0))</f>
         <v>Daggett</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>37.184100000000001</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="19" t="str">
         <f t="array" ref="C12">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B12)),ABS(cities-B12),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="19">
         <v>38.997199999999999</v>
       </c>
-      <c r="C13" s="22" t="str" cm="1">
+      <c r="C13" s="19" t="str" cm="1">
         <f t="array" ref="C13">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B13)),ABS(cities-B13),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="19">
         <v>41.621899999999997</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="19" t="str">
         <f t="array" ref="C14">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B14)),ABS(cities-B14),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>38.989600000000003</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="19" t="str">
         <f t="array" ref="C15">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B15)),ABS(cities-B15),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="19">
         <v>38.9101</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="19" t="str">
         <f t="array" ref="C16">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B16)),ABS(cities-B16),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>28.630500000000001</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="19" t="str">
         <f t="array" ref="C17">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B17)),ABS(cities-B17),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>32.641500000000001</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="19" t="str">
         <f t="array" ref="C18">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B18)),ABS(cities-B18),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="19">
         <v>20.2927</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="19" t="str">
         <f t="array" ref="C19">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B19)),ABS(cities-B19),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>44.350900000000003</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="19" t="str">
         <f t="array" ref="C20">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B20)),ABS(cities-B20),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>40.041699999999999</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="19" t="str">
         <f t="array" ref="C21">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B21)),ABS(cities-B21),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>39.894199999999998</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="19" t="str">
         <f t="array" ref="C22">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B22)),ABS(cities-B22),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="19">
         <v>42.075099999999999</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="19" t="str">
         <f t="array" ref="C23">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B23)),ABS(cities-B23),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="19">
         <v>38.493699999999997</v>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="19" t="str">
         <f t="array" ref="C24">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B24)),ABS(cities-B24),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="19">
         <v>37.534700000000001</v>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="19" t="str">
         <f t="array" ref="C25">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B25)),ABS(cities-B25),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="19">
         <v>31.068899999999999</v>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="19" t="str">
         <f t="array" ref="C26">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B26)),ABS(cities-B26),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="19">
         <v>45.369500000000002</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="19" t="str">
         <f t="array" ref="C27">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B27)),ABS(cities-B27),0))</f>
         <v>Seattle</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="19">
         <v>39.055</v>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="19" t="str">
         <f t="array" ref="C28">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B28)),ABS(cities-B28),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="19">
         <v>42.259599999999999</v>
       </c>
-      <c r="C29" s="22" t="str">
+      <c r="C29" s="19" t="str">
         <f t="array" ref="C29">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B29)),ABS(cities-B29),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="19">
         <v>44.346699999999998</v>
       </c>
-      <c r="C30" s="22" t="str">
+      <c r="C30" s="19" t="str">
         <f t="array" ref="C30">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B30)),ABS(cities-B30),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="19">
         <v>46.280700000000003</v>
       </c>
-      <c r="C31" s="22" t="str">
+      <c r="C31" s="19" t="str">
         <f t="array" ref="C31">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B31)),ABS(cities-B31),0))</f>
         <v>Seattle</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="19">
         <v>32.736400000000003</v>
       </c>
-      <c r="C32" s="22" t="str">
+      <c r="C32" s="19" t="str">
         <f t="array" ref="C32">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B32)),ABS(cities-B32),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="19">
         <v>38.3566</v>
       </c>
-      <c r="C33" s="22" t="str">
+      <c r="C33" s="19" t="str">
         <f t="array" ref="C33">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B33)),ABS(cities-B33),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="19">
         <v>47.052700000000002</v>
       </c>
-      <c r="C34" s="22" t="str">
+      <c r="C34" s="19" t="str">
         <f t="array" ref="C34">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B34)),ABS(cities-B34),0))</f>
         <v>Seattle</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="19">
         <v>41.537799999999997</v>
       </c>
-      <c r="C35" s="22" t="str">
+      <c r="C35" s="19" t="str">
         <f t="array" ref="C35">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B35)),ABS(cities-B35),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="19">
         <v>39.328899999999997</v>
       </c>
-      <c r="C36" s="22" t="str">
+      <c r="C36" s="19" t="str">
         <f t="array" ref="C36">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B36)),ABS(cities-B36),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="19">
         <v>43.680500000000002</v>
       </c>
-      <c r="C37" s="22" t="str">
+      <c r="C37" s="19" t="str">
         <f t="array" ref="C37">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B37)),ABS(cities-B37),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="19">
         <v>40.1907</v>
       </c>
-      <c r="C38" s="22" t="str">
+      <c r="C38" s="19" t="str">
         <f t="array" ref="C38">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B38)),ABS(cities-B38),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="19">
         <v>34.4071</v>
       </c>
-      <c r="C39" s="22" t="str">
+      <c r="C39" s="19" t="str">
         <f t="array" ref="C39">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B39)),ABS(cities-B39),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="19">
         <v>42.953800000000001</v>
       </c>
-      <c r="C40" s="22" t="str">
+      <c r="C40" s="19" t="str">
         <f t="array" ref="C40">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B40)),ABS(cities-B40),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="19">
         <v>35.555700000000002</v>
       </c>
-      <c r="C41" s="22" t="str">
+      <c r="C41" s="19" t="str">
         <f t="array" ref="C41">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B41)),ABS(cities-B41),0))</f>
         <v>Daggett</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="19">
         <v>47.450099999999999</v>
       </c>
-      <c r="C42" s="22" t="str">
+      <c r="C42" s="19" t="str">
         <f t="array" ref="C42">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B42)),ABS(cities-B42),0))</f>
         <v>Seattle</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="19">
         <v>40.286200000000001</v>
       </c>
-      <c r="C43" s="22" t="str">
+      <c r="C43" s="19" t="str">
         <f t="array" ref="C43">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B43)),ABS(cities-B43),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="19">
         <v>35.588900000000002</v>
       </c>
-      <c r="C44" s="22" t="str">
+      <c r="C44" s="19" t="str">
         <f t="array" ref="C44">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B44)),ABS(cities-B44),0))</f>
         <v>Daggett</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="19">
         <v>43.933599999999998</v>
       </c>
-      <c r="C45" s="22" t="str">
+      <c r="C45" s="19" t="str">
         <f t="array" ref="C45">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B45)),ABS(cities-B45),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="19">
         <v>40.878100000000003</v>
       </c>
-      <c r="C46" s="22" t="str">
+      <c r="C46" s="19" t="str">
         <f t="array" ref="C46">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B46)),ABS(cities-B46),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="19">
         <v>41.676200000000001</v>
       </c>
-      <c r="C47" s="22" t="str">
+      <c r="C47" s="19" t="str">
         <f t="array" ref="C47">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B47)),ABS(cities-B47),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="19">
         <v>33.916899999999998</v>
       </c>
-      <c r="C48" s="22" t="str">
+      <c r="C48" s="19" t="str">
         <f t="array" ref="C48">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B48)),ABS(cities-B48),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="19">
         <v>44.444299999999998</v>
       </c>
-      <c r="C49" s="22" t="str">
+      <c r="C49" s="19" t="str">
         <f t="array" ref="C49">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B49)),ABS(cities-B49),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="19">
         <v>35.857999999999997</v>
       </c>
-      <c r="C50" s="22" t="str">
+      <c r="C50" s="19" t="str">
         <f t="array" ref="C50">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B50)),ABS(cities-B50),0))</f>
         <v>Daggett</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="19">
         <v>31.4757</v>
       </c>
-      <c r="C51" s="22" t="str">
+      <c r="C51" s="19" t="str">
         <f t="array" ref="C51">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B51)),ABS(cities-B51),0))</f>
         <v>Los Angeles</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="19">
         <v>39.305500000000002</v>
       </c>
-      <c r="C52" s="22" t="str">
+      <c r="C52" s="19" t="str">
         <f t="array" ref="C52">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B52)),ABS(cities-B52),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="19">
         <v>44.0687</v>
       </c>
-      <c r="C53" s="22" t="str">
+      <c r="C53" s="19" t="str">
         <f t="array" ref="C53">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B53)),ABS(cities-B53),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="19">
         <v>37.521500000000003</v>
       </c>
-      <c r="C54" s="22" t="str">
+      <c r="C54" s="19" t="str">
         <f t="array" ref="C54">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B54)),ABS(cities-B54),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="22">
+      <c r="B55" s="19">
         <v>47.382599999999996</v>
       </c>
-      <c r="C55" s="22" t="str">
+      <c r="C55" s="19" t="str">
         <f t="array" ref="C55">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B55)),ABS(cities-B55),0))</f>
         <v>Seattle</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="22" t="s">
+    <row r="56" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="23">
         <v>38.640900000000002</v>
       </c>
-      <c r="C56" s="22" t="str">
+      <c r="C56" s="19" t="str">
         <f t="array" ref="C56">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B56)),ABS(cities-B56),0))</f>
         <v>Kansas City</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="19">
         <v>44.624299999999998</v>
       </c>
-      <c r="C57" s="22" t="str">
+      <c r="C57" s="19" t="str">
         <f t="array" ref="C57">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B57)),ABS(cities-B57),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="22" t="s">
+    <row r="58" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="19">
         <v>42.995699999999999</v>
       </c>
-      <c r="C58" s="22" t="str">
+      <c r="C58" s="19" t="str">
         <f t="array" ref="C58">INDEX(A$61:A$65,MATCH(MIN(ABS(cities-B58)),ABS(cities-B58),0))</f>
         <v>Chicago</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="23" t="s">
+    <row r="59" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="19">
         <v>47.606200000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="23" t="s">
+    <row r="62" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="19">
         <v>41.878100000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="23" t="s">
+    <row r="63" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="19">
         <v>39.099699999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="27" t="s">
+    <row r="64" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="19">
         <v>34.052199999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="27" t="s">
+    <row r="65" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="19">
         <v>34.863999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="24">
+    <row r="66" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="25"/>
+      <c r="B74" s="21">
         <v>2018</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="21">
         <v>2019</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="21">
         <v>2020</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="21">
         <v>2021</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="21">
         <v>2022</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G74" s="21">
         <v>2023</v>
       </c>
-      <c r="H74" s="24">
+      <c r="H74" s="21">
         <v>2024</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="21">
         <v>2025</v>
       </c>
-      <c r="J74" s="24">
+      <c r="J74" s="21">
         <v>2026</v>
       </c>
-      <c r="K74" s="24">
+      <c r="K74" s="21">
         <v>2027</v>
       </c>
-      <c r="L74" s="24">
+      <c r="L74" s="21">
         <v>2028</v>
       </c>
-      <c r="M74" s="24">
+      <c r="M74" s="21">
         <v>2029</v>
       </c>
-      <c r="N74" s="24">
+      <c r="N74" s="21">
         <v>2030</v>
       </c>
-      <c r="O74" s="24">
+      <c r="O74" s="21">
         <v>2031</v>
       </c>
-      <c r="P74" s="24">
+      <c r="P74" s="21">
         <v>2032</v>
       </c>
-      <c r="Q74" s="24">
+      <c r="Q74" s="21">
         <v>2033</v>
       </c>
-      <c r="R74" s="24">
+      <c r="R74" s="21">
         <v>2034</v>
       </c>
-      <c r="S74" s="24">
+      <c r="S74" s="21">
         <v>2035</v>
       </c>
-      <c r="T74" s="24">
+      <c r="T74" s="21">
         <v>2036</v>
       </c>
-      <c r="U74" s="24">
+      <c r="U74" s="21">
         <v>2037</v>
       </c>
-      <c r="V74" s="24">
+      <c r="V74" s="21">
         <v>2038</v>
       </c>
-      <c r="W74" s="24">
+      <c r="W74" s="21">
         <v>2039</v>
       </c>
-      <c r="X74" s="24">
+      <c r="X74" s="21">
         <v>2040</v>
       </c>
-      <c r="Y74" s="24">
+      <c r="Y74" s="21">
         <v>2041</v>
       </c>
-      <c r="Z74" s="24">
+      <c r="Z74" s="21">
         <v>2042</v>
       </c>
-      <c r="AA74" s="24">
+      <c r="AA74" s="21">
         <v>2043</v>
       </c>
-      <c r="AB74" s="24">
+      <c r="AB74" s="21">
         <v>2044</v>
       </c>
-      <c r="AC74" s="24">
+      <c r="AC74" s="21">
         <v>2045</v>
       </c>
-      <c r="AD74" s="24">
+      <c r="AD74" s="21">
         <v>2046</v>
       </c>
-      <c r="AE74" s="24">
+      <c r="AE74" s="21">
         <v>2047</v>
       </c>
-      <c r="AF74" s="24">
+      <c r="AF74" s="21">
         <v>2048</v>
       </c>
-      <c r="AG74" s="24">
+      <c r="AG74" s="21">
         <v>2049</v>
       </c>
-      <c r="AH74" s="24">
+      <c r="AH74" s="21">
         <v>2050</v>
       </c>
     </row>
-    <row r="75" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="23" t="s">
+    <row r="75" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="15">
         <v>0.13369127721311139</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="15">
         <v>0.13388088355837532</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="15">
         <v>0.13407048990363926</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="15">
         <v>0.1342600962489032</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="15">
         <v>0.13444970259416714</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="15">
         <v>0.13463930893943107</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="15">
         <v>0.13482891528469501</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="15">
         <v>0.13501852162995895</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J75" s="15">
         <v>0.13520812797522289</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K75" s="15">
         <v>0.13539773432048682</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L75" s="15">
         <v>0.13558734066575076</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M75" s="15">
         <v>0.1357769470110147</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N75" s="15">
         <v>0.13596655335627864</v>
       </c>
-      <c r="O75" s="17">
+      <c r="O75" s="15">
         <v>0.13614211349223482</v>
       </c>
-      <c r="P75" s="17">
+      <c r="P75" s="15">
         <v>0.136317673628191</v>
       </c>
-      <c r="Q75" s="17">
+      <c r="Q75" s="15">
         <v>0.13649323376414718</v>
       </c>
-      <c r="R75" s="17">
+      <c r="R75" s="15">
         <v>0.13666879390010336</v>
       </c>
-      <c r="S75" s="17">
+      <c r="S75" s="15">
         <v>0.13684435403605955</v>
       </c>
-      <c r="T75" s="17">
+      <c r="T75" s="15">
         <v>0.13701991417201573</v>
       </c>
-      <c r="U75" s="17">
+      <c r="U75" s="15">
         <v>0.13719547430797191</v>
       </c>
-      <c r="V75" s="17">
+      <c r="V75" s="15">
         <v>0.13737103444392809</v>
       </c>
-      <c r="W75" s="17">
+      <c r="W75" s="15">
         <v>0.13754659457988427</v>
       </c>
-      <c r="X75" s="17">
+      <c r="X75" s="15">
         <v>0.13772215471584046</v>
       </c>
-      <c r="Y75" s="17">
+      <c r="Y75" s="15">
         <v>0.13789771485179664</v>
       </c>
-      <c r="Z75" s="17">
+      <c r="Z75" s="15">
         <v>0.13807327498775282</v>
       </c>
-      <c r="AA75" s="17">
+      <c r="AA75" s="15">
         <v>0.138248835123709</v>
       </c>
-      <c r="AB75" s="17">
+      <c r="AB75" s="15">
         <v>0.13842439525966518</v>
       </c>
-      <c r="AC75" s="17">
+      <c r="AC75" s="15">
         <v>0.13859995539562137</v>
       </c>
-      <c r="AD75" s="17">
+      <c r="AD75" s="15">
         <v>0.13877551553157755</v>
       </c>
-      <c r="AE75" s="17">
+      <c r="AE75" s="15">
         <v>0.13895107566753373</v>
       </c>
-      <c r="AF75" s="17">
+      <c r="AF75" s="15">
         <v>0.13912663580348991</v>
       </c>
-      <c r="AG75" s="17">
+      <c r="AG75" s="15">
         <v>0.13930219593944609</v>
       </c>
-      <c r="AH75" s="17">
+      <c r="AH75" s="15">
         <v>0.13947775607540244</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="23" t="s">
+    <row r="76" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="15">
         <v>0.15435657958147719</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="15">
         <v>0.15457549428954176</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="15">
         <v>0.15479440899760633</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="15">
         <v>0.15501332370567089</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="15">
         <v>0.15523223841373546</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="15">
         <v>0.15545115312180002</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="15">
         <v>0.15567006782986459</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="15">
         <v>0.15588898253792915</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="15">
         <v>0.15610789724599372</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K76" s="15">
         <v>0.15632681195405829</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L76" s="15">
         <v>0.15654572666212285</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M76" s="15">
         <v>0.15676464137018742</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N76" s="15">
         <v>0.15698355607825198</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O76" s="15">
         <v>0.1571862533870215</v>
       </c>
-      <c r="P76" s="17">
+      <c r="P76" s="15">
         <v>0.15738895069579101</v>
       </c>
-      <c r="Q76" s="17">
+      <c r="Q76" s="15">
         <v>0.15759164800456052</v>
       </c>
-      <c r="R76" s="17">
+      <c r="R76" s="15">
         <v>0.15779434531333003</v>
       </c>
-      <c r="S76" s="17">
+      <c r="S76" s="15">
         <v>0.15799704262209954</v>
       </c>
-      <c r="T76" s="17">
+      <c r="T76" s="15">
         <v>0.15819973993086905</v>
       </c>
-      <c r="U76" s="17">
+      <c r="U76" s="15">
         <v>0.15840243723963857</v>
       </c>
-      <c r="V76" s="17">
+      <c r="V76" s="15">
         <v>0.15860513454840808</v>
       </c>
-      <c r="W76" s="17">
+      <c r="W76" s="15">
         <v>0.15880783185717759</v>
       </c>
-      <c r="X76" s="17">
+      <c r="X76" s="15">
         <v>0.1590105291659471</v>
       </c>
-      <c r="Y76" s="17">
+      <c r="Y76" s="15">
         <v>0.15921322647471661</v>
       </c>
-      <c r="Z76" s="17">
+      <c r="Z76" s="15">
         <v>0.15941592378348612</v>
       </c>
-      <c r="AA76" s="17">
+      <c r="AA76" s="15">
         <v>0.15961862109225564</v>
       </c>
-      <c r="AB76" s="17">
+      <c r="AB76" s="15">
         <v>0.15982131840102515</v>
       </c>
-      <c r="AC76" s="17">
+      <c r="AC76" s="15">
         <v>0.16002401570979466</v>
       </c>
-      <c r="AD76" s="17">
+      <c r="AD76" s="15">
         <v>0.16022671301856417</v>
       </c>
-      <c r="AE76" s="17">
+      <c r="AE76" s="15">
         <v>0.16042941032733368</v>
       </c>
-      <c r="AF76" s="17">
+      <c r="AF76" s="15">
         <v>0.16063210763610319</v>
       </c>
-      <c r="AG76" s="17">
+      <c r="AG76" s="15">
         <v>0.16083480494487271</v>
       </c>
-      <c r="AH76" s="17">
+      <c r="AH76" s="15">
         <v>0.16103750225364227</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="23" t="s">
+    <row r="77" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="15">
         <v>0.16519144698681371</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="15">
         <v>0.16542572813951825</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="15">
         <v>0.1656600092922228</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="15">
         <v>0.16589429044492734</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="15">
         <v>0.16612857159763189</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="15">
         <v>0.16636285275033644</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="15">
         <v>0.16659713390304098</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="15">
         <v>0.16683141505574553</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J77" s="15">
         <v>0.16706569620845008</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K77" s="15">
         <v>0.16729997736115462</v>
       </c>
-      <c r="L77" s="17">
+      <c r="L77" s="15">
         <v>0.16753425851385917</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M77" s="15">
         <v>0.16776853966656372</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N77" s="15">
         <v>0.16800282081926834</v>
       </c>
-      <c r="O77" s="17">
+      <c r="O77" s="15">
         <v>0.1682197462125801</v>
       </c>
-      <c r="P77" s="17">
+      <c r="P77" s="15">
         <v>0.16843667160589185</v>
       </c>
-      <c r="Q77" s="17">
+      <c r="Q77" s="15">
         <v>0.1686535969992036</v>
       </c>
-      <c r="R77" s="17">
+      <c r="R77" s="15">
         <v>0.16887052239251535</v>
       </c>
-      <c r="S77" s="17">
+      <c r="S77" s="15">
         <v>0.1690874477858271</v>
       </c>
-      <c r="T77" s="17">
+      <c r="T77" s="15">
         <v>0.16930437317913885</v>
       </c>
-      <c r="U77" s="17">
+      <c r="U77" s="15">
         <v>0.1695212985724506</v>
       </c>
-      <c r="V77" s="17">
+      <c r="V77" s="15">
         <v>0.16973822396576235</v>
       </c>
-      <c r="W77" s="17">
+      <c r="W77" s="15">
         <v>0.1699551493590741</v>
       </c>
-      <c r="X77" s="17">
+      <c r="X77" s="15">
         <v>0.17017207475238585</v>
       </c>
-      <c r="Y77" s="17">
+      <c r="Y77" s="15">
         <v>0.17038900014569761</v>
       </c>
-      <c r="Z77" s="17">
+      <c r="Z77" s="15">
         <v>0.17060592553900936</v>
       </c>
-      <c r="AA77" s="17">
+      <c r="AA77" s="15">
         <v>0.17082285093232111</v>
       </c>
-      <c r="AB77" s="17">
+      <c r="AB77" s="15">
         <v>0.17103977632563286</v>
       </c>
-      <c r="AC77" s="17">
+      <c r="AC77" s="15">
         <v>0.17125670171894461</v>
       </c>
-      <c r="AD77" s="17">
+      <c r="AD77" s="15">
         <v>0.17147362711225636</v>
       </c>
-      <c r="AE77" s="17">
+      <c r="AE77" s="15">
         <v>0.17169055250556811</v>
       </c>
-      <c r="AF77" s="17">
+      <c r="AF77" s="15">
         <v>0.17190747789887986</v>
       </c>
-      <c r="AG77" s="17">
+      <c r="AG77" s="15">
         <v>0.17212440329219161</v>
       </c>
-      <c r="AH77" s="17">
+      <c r="AH77" s="15">
         <v>0.17234132868550339</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="27" t="s">
+    <row r="78" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="15">
         <v>0.18996493457887439</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="15">
         <v>0.19023435048785989</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="15">
         <v>0.19050376639684538</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="15">
         <v>0.19077318230583087</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="15">
         <v>0.19104259821481637</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="15">
         <v>0.19131201412380186</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="15">
         <v>0.19158143003278735</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="15">
         <v>0.19185084594177285</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J78" s="15">
         <v>0.19212026185075834</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K78" s="15">
         <v>0.19238967775974383</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L78" s="15">
         <v>0.19265909366872933</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M78" s="15">
         <v>0.19292850957771482</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N78" s="15">
         <v>0.19319792548670045</v>
       </c>
-      <c r="O78" s="17">
+      <c r="O78" s="15">
         <v>0.19344738282181451</v>
       </c>
-      <c r="P78" s="17">
+      <c r="P78" s="15">
         <v>0.19369684015692856</v>
       </c>
-      <c r="Q78" s="17">
+      <c r="Q78" s="15">
         <v>0.19394629749204262</v>
       </c>
-      <c r="R78" s="17">
+      <c r="R78" s="15">
         <v>0.19419575482715667</v>
       </c>
-      <c r="S78" s="17">
+      <c r="S78" s="15">
         <v>0.19444521216227073</v>
       </c>
-      <c r="T78" s="17">
+      <c r="T78" s="15">
         <v>0.19469466949738479</v>
       </c>
-      <c r="U78" s="17">
+      <c r="U78" s="15">
         <v>0.19494412683249884</v>
       </c>
-      <c r="V78" s="17">
+      <c r="V78" s="15">
         <v>0.1951935841676129</v>
       </c>
-      <c r="W78" s="17">
+      <c r="W78" s="15">
         <v>0.19544304150272696</v>
       </c>
-      <c r="X78" s="17">
+      <c r="X78" s="15">
         <v>0.19569249883784101</v>
       </c>
-      <c r="Y78" s="17">
+      <c r="Y78" s="15">
         <v>0.19594195617295507</v>
       </c>
-      <c r="Z78" s="17">
+      <c r="Z78" s="15">
         <v>0.19619141350806912</v>
       </c>
-      <c r="AA78" s="17">
+      <c r="AA78" s="15">
         <v>0.19644087084318318</v>
       </c>
-      <c r="AB78" s="17">
+      <c r="AB78" s="15">
         <v>0.19669032817829724</v>
       </c>
-      <c r="AC78" s="17">
+      <c r="AC78" s="15">
         <v>0.19693978551341129</v>
       </c>
-      <c r="AD78" s="17">
+      <c r="AD78" s="15">
         <v>0.19718924284852535</v>
       </c>
-      <c r="AE78" s="17">
+      <c r="AE78" s="15">
         <v>0.1974387001836394</v>
       </c>
-      <c r="AF78" s="17">
+      <c r="AF78" s="15">
         <v>0.19768815751875346</v>
       </c>
-      <c r="AG78" s="17">
+      <c r="AG78" s="15">
         <v>0.19793761485386752</v>
       </c>
-      <c r="AH78" s="17">
+      <c r="AH78" s="15">
         <v>0.19818707218898141</v>
       </c>
     </row>
-    <row r="79" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="27" t="s">
+    <row r="79" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="15">
         <v>0.20750952376814</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="15">
         <v>0.20780382211900711</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D79" s="15">
         <v>0.20809812046987422</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="15">
         <v>0.20839241882074133</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="15">
         <v>0.20868671717160844</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="15">
         <v>0.20898101552247556</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="15">
         <v>0.20927531387334267</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="15">
         <v>0.20956961222420978</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="15">
         <v>0.20986391057507689</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K79" s="15">
         <v>0.210158208925944</v>
       </c>
-      <c r="L79" s="17">
+      <c r="L79" s="15">
         <v>0.21045250727681111</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="15">
         <v>0.21074680562767822</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N79" s="15">
         <v>0.21104110397854545</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O79" s="15">
         <v>0.21131360044177294</v>
       </c>
-      <c r="P79" s="17">
+      <c r="P79" s="15">
         <v>0.21158609690500044</v>
       </c>
-      <c r="Q79" s="17">
+      <c r="Q79" s="15">
         <v>0.21185859336822793</v>
       </c>
-      <c r="R79" s="17">
+      <c r="R79" s="15">
         <v>0.21213108983145543</v>
       </c>
-      <c r="S79" s="17">
+      <c r="S79" s="15">
         <v>0.21240358629468292</v>
       </c>
-      <c r="T79" s="17">
+      <c r="T79" s="15">
         <v>0.21267608275791042</v>
       </c>
-      <c r="U79" s="17">
+      <c r="U79" s="15">
         <v>0.21294857922113791</v>
       </c>
-      <c r="V79" s="17">
+      <c r="V79" s="15">
         <v>0.21322107568436541</v>
       </c>
-      <c r="W79" s="17">
+      <c r="W79" s="15">
         <v>0.2134935721475929</v>
       </c>
-      <c r="X79" s="17">
+      <c r="X79" s="15">
         <v>0.2137660686108204</v>
       </c>
-      <c r="Y79" s="17">
+      <c r="Y79" s="15">
         <v>0.21403856507404789</v>
       </c>
-      <c r="Z79" s="17">
+      <c r="Z79" s="15">
         <v>0.21431106153727539</v>
       </c>
-      <c r="AA79" s="17">
+      <c r="AA79" s="15">
         <v>0.21458355800050288</v>
       </c>
-      <c r="AB79" s="17">
+      <c r="AB79" s="15">
         <v>0.21485605446373038</v>
       </c>
-      <c r="AC79" s="17">
+      <c r="AC79" s="15">
         <v>0.21512855092695787</v>
       </c>
-      <c r="AD79" s="17">
+      <c r="AD79" s="15">
         <v>0.21540104739018537</v>
       </c>
-      <c r="AE79" s="17">
+      <c r="AE79" s="15">
         <v>0.21567354385341286</v>
       </c>
-      <c r="AF79" s="17">
+      <c r="AF79" s="15">
         <v>0.21594604031664036</v>
       </c>
-      <c r="AG79" s="17">
+      <c r="AG79" s="15">
         <v>0.21621853677986785</v>
       </c>
-      <c r="AH79" s="17">
+      <c r="AH79" s="15">
         <v>0.21649103324309532</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="22" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="19" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="84" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="85" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -5103,7 +5109,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
@@ -5111,7 +5117,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
@@ -5222,1579 +5228,1579 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0.13369127721311139</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0.13417348378496896</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0.13465569035682656</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0.13513789692868416</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0.13562010350054177</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>0.13610231007239937</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>0.13658451664425697</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>0.13706672321611457</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>0.13754892978797217</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>0.13803113635982978</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>0.13851334293168738</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>0.13899554950354498</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AF8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AG8" s="15">
+      <c r="AG8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AH8" s="15">
+      <c r="AH8" s="14">
         <v>0.13947775607540244</v>
       </c>
-      <c r="AI8" s="15">
+      <c r="AI8" s="14">
         <v>0.13947775607540244</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>0.13369127721311139</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>0.13388088355837532</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>0.13407048990363926</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>0.1342600962489032</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>0.13444970259416714</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>0.13463930893943107</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <v>0.13482891528469501</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>0.13501852162995895</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <v>0.13520812797522289</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="15">
         <v>0.13539773432048682</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <v>0.13558734066575076</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="15">
         <v>0.1357769470110147</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="15">
         <v>0.13596655335627864</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="15">
         <v>0.13614211349223482</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="15">
         <v>0.136317673628191</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="15">
         <v>0.13649323376414718</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="15">
         <v>0.13666879390010336</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="15">
         <v>0.13684435403605955</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="15">
         <v>0.13701991417201573</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="15">
         <v>0.13719547430797191</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="15">
         <v>0.13737103444392809</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="15">
         <v>0.13754659457988427</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="15">
         <v>0.13772215471584046</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="15">
         <v>0.13789771485179664</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="15">
         <v>0.13807327498775282</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB9" s="15">
         <v>0.138248835123709</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="15">
         <v>0.13842439525966518</v>
       </c>
-      <c r="AD9" s="17">
+      <c r="AD9" s="15">
         <v>0.13859995539562137</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="15">
         <v>0.13877551553157755</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="15">
         <v>0.13895107566753373</v>
       </c>
-      <c r="AG9" s="17">
+      <c r="AG9" s="15">
         <v>0.13912663580348991</v>
       </c>
-      <c r="AH9" s="17">
+      <c r="AH9" s="15">
         <v>0.13930219593944609</v>
       </c>
-      <c r="AI9" s="17">
+      <c r="AI9" s="15">
         <v>0.13947775607540244</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="17">
         <v>0.13369127721311139</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="17">
         <v>0.13380504102026974</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="17">
         <v>0.1339188048274281</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="17">
         <v>0.13403256863458646</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="17">
         <v>0.13414633244174481</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="17">
         <v>0.13426009624890317</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="17">
         <v>0.13437386005606153</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="17">
         <v>0.13448762386321989</v>
       </c>
-      <c r="W10" s="19">
+      <c r="W10" s="17">
         <v>0.13460138767037824</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="17">
         <v>0.1347151514775366</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="17">
         <v>0.13482891528469496</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="17">
         <v>0.13494267909185331</v>
       </c>
-      <c r="AA10" s="19">
+      <c r="AA10" s="17">
         <v>0.13505644289901167</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="17">
         <v>0.13517020670617003</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="17">
         <v>0.13528397051332838</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="17">
         <v>0.13539773432048674</v>
       </c>
-      <c r="AE10" s="19">
+      <c r="AE10" s="17">
         <v>0.1355114981276451</v>
       </c>
-      <c r="AF10" s="19">
+      <c r="AF10" s="17">
         <v>0.13562526193480345</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG10" s="17">
         <v>0.13573902574196181</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AH10" s="17">
         <v>0.13585278954912017</v>
       </c>
-      <c r="AI10" s="19">
+      <c r="AI10" s="17">
         <v>0.13596655335627864</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.15435657958147719</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0.15491332313749095</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>0.15547006669350472</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>0.15602681024951848</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>0.15658355380553224</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>0.157140297361546</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>0.15769704091755976</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>0.15825378447357352</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>0.15881052802958728</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>0.15936727158560104</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>0.15992401514161481</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>0.16048075869762857</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="U11" s="15">
+      <c r="U11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="V11" s="15">
+      <c r="V11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AA11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AC11" s="15">
+      <c r="AC11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AD11" s="15">
+      <c r="AD11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AE11" s="15">
+      <c r="AE11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AF11" s="15">
+      <c r="AF11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AG11" s="15">
+      <c r="AG11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AH11" s="15">
+      <c r="AH11" s="14">
         <v>0.16103750225364227</v>
       </c>
-      <c r="AI11" s="15">
+      <c r="AI11" s="14">
         <v>0.16103750225364227</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>0.15435657958147719</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>0.15457549428954176</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>0.15479440899760633</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>0.15501332370567089</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>0.15523223841373546</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>0.15545115312180002</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <v>0.15567006782986459</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <v>0.15588898253792915</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <v>0.15610789724599372</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <v>0.15632681195405829</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="15">
         <v>0.15654572666212285</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="15">
         <v>0.15676464137018742</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="15">
         <v>0.15698355607825198</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="15">
         <v>0.1571862533870215</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="15">
         <v>0.15738895069579101</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="15">
         <v>0.15759164800456052</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <v>0.15779434531333003</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="15">
         <v>0.15799704262209954</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="15">
         <v>0.15819973993086905</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="15">
         <v>0.15840243723963857</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="15">
         <v>0.15860513454840808</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="15">
         <v>0.15880783185717759</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="15">
         <v>0.1590105291659471</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="15">
         <v>0.15921322647471661</v>
       </c>
-      <c r="AA12" s="17">
+      <c r="AA12" s="15">
         <v>0.15941592378348612</v>
       </c>
-      <c r="AB12" s="17">
+      <c r="AB12" s="15">
         <v>0.15961862109225564</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="15">
         <v>0.15982131840102515</v>
       </c>
-      <c r="AD12" s="17">
+      <c r="AD12" s="15">
         <v>0.16002401570979466</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="15">
         <v>0.16022671301856417</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="15">
         <v>0.16042941032733368</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="15">
         <v>0.16063210763610319</v>
       </c>
-      <c r="AH12" s="17">
+      <c r="AH12" s="15">
         <v>0.16083480494487271</v>
       </c>
-      <c r="AI12" s="17">
+      <c r="AI12" s="15">
         <v>0.16103750225364227</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="17">
         <v>0.15435657958147719</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="17">
         <v>0.15448792840631592</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="17">
         <v>0.15461927723115465</v>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="17">
         <v>0.15475062605599338</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="17">
         <v>0.15488197488083211</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="17">
         <v>0.15501332370567084</v>
       </c>
-      <c r="U13" s="19">
+      <c r="U13" s="17">
         <v>0.15514467253050956</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="17">
         <v>0.15527602135534829</v>
       </c>
-      <c r="W13" s="19">
+      <c r="W13" s="17">
         <v>0.15540737018018702</v>
       </c>
-      <c r="X13" s="19">
+      <c r="X13" s="17">
         <v>0.15553871900502575</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="Y13" s="17">
         <v>0.15567006782986448</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="17">
         <v>0.15580141665470321</v>
       </c>
-      <c r="AA13" s="19">
+      <c r="AA13" s="17">
         <v>0.15593276547954193</v>
       </c>
-      <c r="AB13" s="19">
+      <c r="AB13" s="17">
         <v>0.15606411430438066</v>
       </c>
-      <c r="AC13" s="19">
+      <c r="AC13" s="17">
         <v>0.15619546312921939</v>
       </c>
-      <c r="AD13" s="19">
+      <c r="AD13" s="17">
         <v>0.15632681195405812</v>
       </c>
-      <c r="AE13" s="19">
+      <c r="AE13" s="17">
         <v>0.15645816077889685</v>
       </c>
-      <c r="AF13" s="19">
+      <c r="AF13" s="17">
         <v>0.15658950960373558</v>
       </c>
-      <c r="AG13" s="19">
+      <c r="AG13" s="17">
         <v>0.15672085842857431</v>
       </c>
-      <c r="AH13" s="19">
+      <c r="AH13" s="17">
         <v>0.15685220725341303</v>
       </c>
-      <c r="AI13" s="19">
+      <c r="AI13" s="17">
         <v>0.15698355607825198</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.16519144698681371</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>0.16578727046170452</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>0.16638309393659534</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>0.16697891741148616</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>0.16757474088637697</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>0.16817056436126779</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <v>0.1687663878361586</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <v>0.16936221131104942</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>0.16995803478594024</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <v>0.17055385826083105</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <v>0.17114968173572187</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <v>0.17174550521061269</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AC14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AF14" s="15">
+      <c r="AF14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AG14" s="15">
+      <c r="AG14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AH14" s="15">
+      <c r="AH14" s="14">
         <v>0.17234132868550339</v>
       </c>
-      <c r="AI14" s="15">
+      <c r="AI14" s="14">
         <v>0.17234132868550339</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>0.16519144698681371</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>0.16542572813951825</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>0.1656600092922228</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>0.16589429044492734</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>0.16612857159763189</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>0.16636285275033644</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>0.16659713390304098</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>0.16683141505574553</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <v>0.16706569620845008</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <v>0.16729997736115462</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="15">
         <v>0.16753425851385917</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="15">
         <v>0.16776853966656372</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="15">
         <v>0.16800282081926834</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="15">
         <v>0.1682197462125801</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="15">
         <v>0.16843667160589185</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="15">
         <v>0.1686535969992036</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="15">
         <v>0.16887052239251535</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="15">
         <v>0.1690874477858271</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="15">
         <v>0.16930437317913885</v>
       </c>
-      <c r="V15" s="17">
+      <c r="V15" s="15">
         <v>0.1695212985724506</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="15">
         <v>0.16973822396576235</v>
       </c>
-      <c r="X15" s="17">
+      <c r="X15" s="15">
         <v>0.1699551493590741</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Y15" s="15">
         <v>0.17017207475238585</v>
       </c>
-      <c r="Z15" s="17">
+      <c r="Z15" s="15">
         <v>0.17038900014569761</v>
       </c>
-      <c r="AA15" s="17">
+      <c r="AA15" s="15">
         <v>0.17060592553900936</v>
       </c>
-      <c r="AB15" s="17">
+      <c r="AB15" s="15">
         <v>0.17082285093232111</v>
       </c>
-      <c r="AC15" s="17">
+      <c r="AC15" s="15">
         <v>0.17103977632563286</v>
       </c>
-      <c r="AD15" s="17">
+      <c r="AD15" s="15">
         <v>0.17125670171894461</v>
       </c>
-      <c r="AE15" s="17">
+      <c r="AE15" s="15">
         <v>0.17147362711225636</v>
       </c>
-      <c r="AF15" s="17">
+      <c r="AF15" s="15">
         <v>0.17169055250556811</v>
       </c>
-      <c r="AG15" s="17">
+      <c r="AG15" s="15">
         <v>0.17190747789887986</v>
       </c>
-      <c r="AH15" s="17">
+      <c r="AH15" s="15">
         <v>0.17212440329219161</v>
       </c>
-      <c r="AI15" s="17">
+      <c r="AI15" s="15">
         <v>0.17234132868550339</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="17">
         <v>0.16519144698681371</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="17">
         <v>0.16533201567843644</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="17">
         <v>0.16547258437005918</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="17">
         <v>0.16561315306168192</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="17">
         <v>0.16575372175330466</v>
       </c>
-      <c r="T16" s="19">
+      <c r="T16" s="17">
         <v>0.1658942904449274</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16" s="17">
         <v>0.16603485913655014</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="17">
         <v>0.16617542782817288</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16" s="17">
         <v>0.16631599651979562</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="17">
         <v>0.16645656521141836</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="17">
         <v>0.16659713390304109</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="17">
         <v>0.16673770259466383</v>
       </c>
-      <c r="AA16" s="19">
+      <c r="AA16" s="17">
         <v>0.16687827128628657</v>
       </c>
-      <c r="AB16" s="19">
+      <c r="AB16" s="17">
         <v>0.16701883997790931</v>
       </c>
-      <c r="AC16" s="19">
+      <c r="AC16" s="17">
         <v>0.16715940866953205</v>
       </c>
-      <c r="AD16" s="19">
+      <c r="AD16" s="17">
         <v>0.16729997736115479</v>
       </c>
-      <c r="AE16" s="19">
+      <c r="AE16" s="17">
         <v>0.16744054605277753</v>
       </c>
-      <c r="AF16" s="19">
+      <c r="AF16" s="17">
         <v>0.16758111474440027</v>
       </c>
-      <c r="AG16" s="19">
+      <c r="AG16" s="17">
         <v>0.16772168343602301</v>
       </c>
-      <c r="AH16" s="19">
+      <c r="AH16" s="17">
         <v>0.16786225212764574</v>
       </c>
-      <c r="AI16" s="19">
+      <c r="AI16" s="17">
         <v>0.16800282081926834</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>0.18996493457887439</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>0.19065011271304999</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>0.19133529084722559</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>0.19202046898140118</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>0.19270564711557678</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>0.19339082524975237</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <v>0.19407600338392797</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>0.19476118151810357</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>0.19544635965227916</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>0.19613153778645476</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <v>0.19681671592063035</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <v>0.19750189405480595</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="S17" s="15">
+      <c r="S17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="U17" s="15">
+      <c r="U17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="V17" s="15">
+      <c r="V17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="X17" s="15">
+      <c r="X17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="Z17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AA17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AC17" s="15">
+      <c r="AC17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AD17" s="15">
+      <c r="AD17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AE17" s="15">
+      <c r="AE17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AF17" s="15">
+      <c r="AF17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AG17" s="15">
+      <c r="AG17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AH17" s="15">
+      <c r="AH17" s="14">
         <v>0.19818707218898141</v>
       </c>
-      <c r="AI17" s="15">
+      <c r="AI17" s="14">
         <v>0.19818707218898141</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>0.18996493457887439</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>0.19023435048785989</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>0.19050376639684538</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>0.19077318230583087</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>0.19104259821481637</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>0.19131201412380186</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <v>0.19158143003278735</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>0.19185084594177285</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <v>0.19212026185075834</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="15">
         <v>0.19238967775974383</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="15">
         <v>0.19265909366872933</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="15">
         <v>0.19292850957771482</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="15">
         <v>0.19319792548670045</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="15">
         <v>0.19344738282181451</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="15">
         <v>0.19369684015692856</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="15">
         <v>0.19394629749204262</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="15">
         <v>0.19419575482715667</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="15">
         <v>0.19444521216227073</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="15">
         <v>0.19469466949738479</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="15">
         <v>0.19494412683249884</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="15">
         <v>0.1951935841676129</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="15">
         <v>0.19544304150272696</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="15">
         <v>0.19569249883784101</v>
       </c>
-      <c r="Z18" s="17">
+      <c r="Z18" s="15">
         <v>0.19594195617295507</v>
       </c>
-      <c r="AA18" s="17">
+      <c r="AA18" s="15">
         <v>0.19619141350806912</v>
       </c>
-      <c r="AB18" s="17">
+      <c r="AB18" s="15">
         <v>0.19644087084318318</v>
       </c>
-      <c r="AC18" s="17">
+      <c r="AC18" s="15">
         <v>0.19669032817829724</v>
       </c>
-      <c r="AD18" s="17">
+      <c r="AD18" s="15">
         <v>0.19693978551341129</v>
       </c>
-      <c r="AE18" s="17">
+      <c r="AE18" s="15">
         <v>0.19718924284852535</v>
       </c>
-      <c r="AF18" s="17">
+      <c r="AF18" s="15">
         <v>0.1974387001836394</v>
       </c>
-      <c r="AG18" s="17">
+      <c r="AG18" s="15">
         <v>0.19768815751875346</v>
       </c>
-      <c r="AH18" s="17">
+      <c r="AH18" s="15">
         <v>0.19793761485386752</v>
       </c>
-      <c r="AI18" s="17">
+      <c r="AI18" s="15">
         <v>0.19818707218898141</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="17">
         <v>0.18996493457887439</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="17">
         <v>0.1901265841242657</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="17">
         <v>0.190288233669657</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R19" s="17">
         <v>0.1904498832150483</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="17">
         <v>0.1906115327604396</v>
       </c>
-      <c r="T19" s="19">
+      <c r="T19" s="17">
         <v>0.1907731823058309</v>
       </c>
-      <c r="U19" s="19">
+      <c r="U19" s="17">
         <v>0.1909348318512222</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="17">
         <v>0.1910964813966135</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W19" s="17">
         <v>0.19125813094200481</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="17">
         <v>0.19141978048739611</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y19" s="17">
         <v>0.19158143003278741</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="17">
         <v>0.19174307957817871</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="AA19" s="17">
         <v>0.19190472912357001</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AB19" s="17">
         <v>0.19206637866896131</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AC19" s="17">
         <v>0.19222802821435261</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="17">
         <v>0.19238967775974392</v>
       </c>
-      <c r="AE19" s="19">
+      <c r="AE19" s="17">
         <v>0.19255132730513522</v>
       </c>
-      <c r="AF19" s="19">
+      <c r="AF19" s="17">
         <v>0.19271297685052652</v>
       </c>
-      <c r="AG19" s="19">
+      <c r="AG19" s="17">
         <v>0.19287462639591782</v>
       </c>
-      <c r="AH19" s="19">
+      <c r="AH19" s="17">
         <v>0.19303627594130912</v>
       </c>
-      <c r="AI19" s="19">
+      <c r="AI19" s="17">
         <v>0.19319792548670045</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>0.20750952376814</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>0.20825798289105293</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>0.20900644201396587</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>0.20975490113687881</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>0.21050336025979174</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>0.21125181938270468</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="14">
         <v>0.21200027850561762</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="14">
         <v>0.21274873762853055</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>0.21349719675144349</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>0.21424565587435643</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="14">
         <v>0.21499411499726936</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <v>0.2157425741201823</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="S20" s="15">
+      <c r="S20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="U20" s="15">
+      <c r="U20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="X20" s="15">
+      <c r="X20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="Y20" s="15">
+      <c r="Y20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AA20" s="15">
+      <c r="AA20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AB20" s="15">
+      <c r="AB20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AC20" s="15">
+      <c r="AC20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AD20" s="15">
+      <c r="AD20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AE20" s="15">
+      <c r="AE20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AF20" s="15">
+      <c r="AF20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AG20" s="15">
+      <c r="AG20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AH20" s="15">
+      <c r="AH20" s="14">
         <v>0.21649103324309532</v>
       </c>
-      <c r="AI20" s="15">
+      <c r="AI20" s="14">
         <v>0.21649103324309532</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>0.20750952376814</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>0.20780382211900711</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>0.20809812046987422</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>0.20839241882074133</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>0.20868671717160844</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <v>0.20898101552247556</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="15">
         <v>0.20927531387334267</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="15">
         <v>0.20956961222420978</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <v>0.20986391057507689</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="15">
         <v>0.210158208925944</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="15">
         <v>0.21045250727681111</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="15">
         <v>0.21074680562767822</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="15">
         <v>0.21104110397854545</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="15">
         <v>0.21131360044177294</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="15">
         <v>0.21158609690500044</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="15">
         <v>0.21185859336822793</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="15">
         <v>0.21213108983145543</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="15">
         <v>0.21240358629468292</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="15">
         <v>0.21267608275791042</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V21" s="15">
         <v>0.21294857922113791</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="15">
         <v>0.21322107568436541</v>
       </c>
-      <c r="X21" s="17">
+      <c r="X21" s="15">
         <v>0.2134935721475929</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Y21" s="15">
         <v>0.2137660686108204</v>
       </c>
-      <c r="Z21" s="17">
+      <c r="Z21" s="15">
         <v>0.21403856507404789</v>
       </c>
-      <c r="AA21" s="17">
+      <c r="AA21" s="15">
         <v>0.21431106153727539</v>
       </c>
-      <c r="AB21" s="17">
+      <c r="AB21" s="15">
         <v>0.21458355800050288</v>
       </c>
-      <c r="AC21" s="17">
+      <c r="AC21" s="15">
         <v>0.21485605446373038</v>
       </c>
-      <c r="AD21" s="17">
+      <c r="AD21" s="15">
         <v>0.21512855092695787</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AE21" s="15">
         <v>0.21540104739018537</v>
       </c>
-      <c r="AF21" s="17">
+      <c r="AF21" s="15">
         <v>0.21567354385341286</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AG21" s="15">
         <v>0.21594604031664036</v>
       </c>
-      <c r="AH21" s="17">
+      <c r="AH21" s="15">
         <v>0.21621853677986785</v>
       </c>
-      <c r="AI21" s="17">
+      <c r="AI21" s="15">
         <v>0.21649103324309532</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="17">
         <v>0.20750952376814</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="17">
         <v>0.20768610277866026</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="17">
         <v>0.20786268178918052</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22" s="17">
         <v>0.20803926079970078</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="17">
         <v>0.20821583981022104</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22" s="17">
         <v>0.2083924188207413</v>
       </c>
-      <c r="U22" s="19">
+      <c r="U22" s="17">
         <v>0.20856899783126157</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="17">
         <v>0.20874557684178183</v>
       </c>
-      <c r="W22" s="19">
+      <c r="W22" s="17">
         <v>0.20892215585230209</v>
       </c>
-      <c r="X22" s="19">
+      <c r="X22" s="17">
         <v>0.20909873486282235</v>
       </c>
-      <c r="Y22" s="19">
+      <c r="Y22" s="17">
         <v>0.20927531387334261</v>
       </c>
-      <c r="Z22" s="19">
+      <c r="Z22" s="17">
         <v>0.20945189288386287</v>
       </c>
-      <c r="AA22" s="19">
+      <c r="AA22" s="17">
         <v>0.20962847189438313</v>
       </c>
-      <c r="AB22" s="19">
+      <c r="AB22" s="17">
         <v>0.2098050509049034</v>
       </c>
-      <c r="AC22" s="19">
+      <c r="AC22" s="17">
         <v>0.20998162991542366</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="17">
         <v>0.21015820892594392</v>
       </c>
-      <c r="AE22" s="19">
+      <c r="AE22" s="17">
         <v>0.21033478793646418</v>
       </c>
-      <c r="AF22" s="19">
+      <c r="AF22" s="17">
         <v>0.21051136694698444</v>
       </c>
-      <c r="AG22" s="19">
+      <c r="AG22" s="17">
         <v>0.2106879459575047</v>
       </c>
-      <c r="AH22" s="19">
+      <c r="AH22" s="17">
         <v>0.21086452496802496</v>
       </c>
-      <c r="AI22" s="19">
+      <c r="AI22" s="17">
         <v>0.21104110397854545</v>
       </c>
     </row>
